--- a/db.xlsx
+++ b/db.xlsx
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6011.599999999994</v>
+        <v>6371.599999999994</v>
       </c>
       <c r="E2">
-        <v>12883</v>
+        <v>13683</v>
       </c>
     </row>
     <row r="3">
@@ -1921,7 +1921,7 @@
         <v>шар гелиевый 400 тг</v>
       </c>
       <c r="C91">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D91">
         <v>180</v>

--- a/db.xlsx
+++ b/db.xlsx
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6371.599999999994</v>
+        <v>23429.299999999996</v>
       </c>
       <c r="E2">
-        <v>13683</v>
+        <v>46659</v>
       </c>
     </row>
     <row r="3">
@@ -1204,10 +1204,10 @@
         <v>2400097</v>
       </c>
       <c r="B49" t="str">
-        <v>духи армель</v>
+        <v>Духи армель</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D49">
         <v>2500</v>
@@ -1547,7 +1547,7 @@
         <v>крючки для штор</v>
       </c>
       <c r="C69">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D69">
         <v>2.7</v>
@@ -22162,7 +22162,7 @@
         <v>духи софт делиш, 50</v>
       </c>
       <c r="C1282">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1282">
         <v>100</v>
@@ -22179,7 +22179,7 @@
         <v>духи  Вива ла вита, 30</v>
       </c>
       <c r="C1283">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1283">
         <v>350</v>
@@ -22366,7 +22366,7 @@
         <v>духи фулспид 75мл</v>
       </c>
       <c r="C1294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1294">
         <v>2550</v>
@@ -22757,7 +22757,7 @@
         <v>духи  Вива ла вита, 50</v>
       </c>
       <c r="C1317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1317">
         <v>100</v>
@@ -23414,7 +23414,7 @@
         <v>духи эйвон тудэй 30мл</v>
       </c>
       <c r="C1356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1356">
         <v>2399</v>
@@ -23887,7 +23887,7 @@
         <v>духи маск мужск, 50</v>
       </c>
       <c r="C1384">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1384">
         <v>1803</v>

--- a/db.xlsx
+++ b/db.xlsx
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>23429.299999999996</v>
+        <v>27035.299999999996</v>
       </c>
       <c r="E2">
-        <v>46659</v>
+        <v>52359</v>
       </c>
     </row>
     <row r="3">
@@ -1323,15 +1323,15 @@
         <v>47016590</v>
       </c>
       <c r="B56" t="str">
-        <v>клей 101</v>
-      </c>
-      <c r="C56">
-        <v>97</v>
-      </c>
-      <c r="D56">
+        <v>клей 102</v>
+      </c>
+      <c r="C56" t="str">
+        <v>100</v>
+      </c>
+      <c r="D56" t="str">
         <v>30</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="str">
         <v>100</v>
       </c>
     </row>
@@ -23887,7 +23887,7 @@
         <v>духи маск мужск, 50</v>
       </c>
       <c r="C1384">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D1384">
         <v>1803</v>

--- a/db.xlsx
+++ b/db.xlsx
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>27035.299999999996</v>
+        <v>27170.299999999996</v>
       </c>
       <c r="E2">
-        <v>52359</v>
+        <v>52599</v>
       </c>
     </row>
     <row r="3">
@@ -1544,15 +1544,15 @@
         <v>120672000005</v>
       </c>
       <c r="B69" t="str">
-        <v>крючки для штор</v>
-      </c>
-      <c r="C69">
+        <v>крючки для шторы</v>
+      </c>
+      <c r="C69" t="str">
         <v>167</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="str">
         <v>2.7</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="str">
         <v>6</v>
       </c>
     </row>
@@ -19493,7 +19493,7 @@
         <v>совок синий</v>
       </c>
       <c r="C1125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1125">
         <v>135</v>
